--- a/Session6_Python/Global_Data.xlsx
+++ b/Session6_Python/Global_Data.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>california</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
